--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rspo4-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rspo4-Lgr4.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.660964666666667</v>
+        <v>1.321358333333333</v>
       </c>
       <c r="N2">
-        <v>4.982894</v>
+        <v>3.964075</v>
       </c>
       <c r="O2">
-        <v>0.09230299804773986</v>
+        <v>0.06904315418552966</v>
       </c>
       <c r="P2">
-        <v>0.09230299804773986</v>
+        <v>0.06904315418552966</v>
       </c>
       <c r="Q2">
-        <v>0.2684118901333333</v>
+        <v>0.2135315066666666</v>
       </c>
       <c r="R2">
-        <v>2.4157070112</v>
+        <v>1.92178356</v>
       </c>
       <c r="S2">
-        <v>0.09230299804773986</v>
+        <v>0.06904315418552966</v>
       </c>
       <c r="T2">
-        <v>0.09230299804773986</v>
+        <v>0.06904315418552966</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>26.17006</v>
       </c>
       <c r="O3">
-        <v>0.4847735065384163</v>
+        <v>0.4558096119837698</v>
       </c>
       <c r="P3">
-        <v>0.4847735065384163</v>
+        <v>0.4558096119837698</v>
       </c>
       <c r="Q3">
         <v>1.409693898666667</v>
@@ -632,10 +632,10 @@
         <v>12.687245088</v>
       </c>
       <c r="S3">
-        <v>0.4847735065384163</v>
+        <v>0.4558096119837698</v>
       </c>
       <c r="T3">
-        <v>0.4847735065384163</v>
+        <v>0.4558096119837698</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.610381</v>
+        <v>9.093439666666667</v>
       </c>
       <c r="N4">
-        <v>22.831143</v>
+        <v>27.280319</v>
       </c>
       <c r="O4">
-        <v>0.4229234954138438</v>
+        <v>0.4751472338307006</v>
       </c>
       <c r="P4">
-        <v>0.4229234954138438</v>
+        <v>0.4751472338307005</v>
       </c>
       <c r="Q4">
-        <v>1.2298375696</v>
+        <v>1.469499850133333</v>
       </c>
       <c r="R4">
-        <v>11.0685381264</v>
+        <v>13.2254986512</v>
       </c>
       <c r="S4">
-        <v>0.4229234954138438</v>
+        <v>0.4751472338307006</v>
       </c>
       <c r="T4">
-        <v>0.4229234954138438</v>
+        <v>0.4751472338307005</v>
       </c>
     </row>
   </sheetData>
